--- a/Lexis-GLOBAL/Coredata/ENTITY_SUBTYPE.xlsx
+++ b/Lexis-GLOBAL/Coredata/ENTITY_SUBTYPE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC0930-41E1-40F1-88B8-1D8F5CF07D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778FF785-A196-4A3F-855D-50FCF2974FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EntitySubType_View" sheetId="1" r:id="rId1"/>
@@ -670,13 +670,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ADACB1-FBFD-468F-B531-E4CD398FCC10}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
     <col min="4" max="4" width="12.90625" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
@@ -689,6 +690,7 @@
     <col min="13" max="16" width="0" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="20.81640625" customWidth="1"/>
     <col min="18" max="18" width="20.54296875" customWidth="1"/>
+    <col min="20" max="20" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -822,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C37336-0880-47E3-B21B-8D1A5C9913C9}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
